--- a/biology/Médecine/Thérapie_stratégique/Thérapie_stratégique.xlsx
+++ b/biology/Médecine/Thérapie_stratégique/Thérapie_stratégique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapie_strat%C3%A9gique</t>
+          <t>Thérapie_stratégique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thérapie stratégique est une approche stratégique, relationnelle/interactive et systémique, comme décrit plus amplement ci-après.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapie_strat%C3%A9gique</t>
+          <t>Thérapie_stratégique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est stratégique dans la mesure où elle s'adapte au contexte de la situation et utilise pour soigner le patient ce qu'elle apporte en termes de symptômes ou de ressources mais aussi de langage, d'émotion et de vision du monde, d'analogies, etc. Elle implique une extrême souplesse et promptitude du thérapeute pour retourner la situation pathologique en vue d'un changement plus confortable pour le patient. Elle est inspirée de l'approche anthropologique de Gregory Bateson et de l'approche utilisationnelle de Milton Erickson.
 Elle est relationnelle dans la mesure où elle place les processus de communication relationnelle au cœur du processus thérapeutique ; elle est interactive parce que compte au plus haut point non seulement le comportement du patient mais ses interactions avec les acteurs concernés par la situation et le problème présenté, et notamment lors de l'entretien thérapeutique où sont primordiales la qualité et la pertinence des interactions patient-thérapeute.
